--- a/전체 개발일정 상세 계획(wbs작성).xlsx
+++ b/전체 개발일정 상세 계획(wbs작성).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획-디자인 단계 기반의 개발 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트/백 병행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발 Front-End, Back-End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +243,6 @@
   </si>
   <si>
     <t>어느 화면의 기능을 테스트해야하는지 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 케이스 기반으로 실제 테스트 시나리오 명세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -440,6 +428,30 @@
   </si>
   <si>
     <t>테스트를 위한 상세케이스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 케이스 기반으로 실제 테스트 시나리오 명세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획-디자인 단계 기반의 개발 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트/백 병행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원가입(table user_info insert)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 로그인(table user_info select) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공데이터포털 병원정보 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,17 +590,20 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,16 +626,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -629,7 +644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487400" y="342900"/>
+          <a:off x="14839950" y="352425"/>
           <a:ext cx="714375" cy="8258175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -935,14 +950,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,51 +970,51 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -1012,113 +1027,113 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="AH3" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AI3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="AL3" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1161,7 +1176,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1217,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1245,9 +1260,9 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1286,7 +1301,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1329,7 +1344,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1385,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1413,9 +1428,9 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1456,7 +1471,7 @@
       <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1499,7 +1514,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1555,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1583,7 +1598,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1639,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1667,7 +1682,7 @@
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
@@ -1708,11 +1723,11 @@
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1751,7 +1766,7 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1809,7 @@
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1837,7 +1852,7 @@
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
@@ -1878,7 +1893,7 @@
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1921,7 +1936,7 @@
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2005,7 +2020,7 @@
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2046,7 +2061,7 @@
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2089,7 +2104,7 @@
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2175,7 +2190,7 @@
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2218,7 +2233,7 @@
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4" t="s">
         <v>45</v>
       </c>
@@ -2259,11 +2274,11 @@
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>48</v>
+      <c r="C31" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2272,10 +2287,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2302,9 +2317,9 @@
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2313,10 +2328,10 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2343,9 +2358,9 @@
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="4" t="s">
-        <v>61</v>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2353,11 +2368,11 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -2383,14 +2398,10 @@
       <c r="AL33" s="4"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>98</v>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2398,8 +2409,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2429,9 +2440,9 @@
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="4" t="s">
-        <v>50</v>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2439,9 +2450,9 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2470,11 +2481,9 @@
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="C36" s="12"/>
       <c r="D36" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2512,10 +2521,14 @@
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2524,9 +2537,6 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2554,11 +2564,9 @@
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
-      <c r="C38" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2597,9 +2605,11 @@
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
+      <c r="C39" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="D39" s="4" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2638,11 +2648,9 @@
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2681,9 +2689,11 @@
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2720,28 +2730,144 @@
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
     </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+    </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B41"/>
     <mergeCell ref="E2:AE2"/>
     <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C31:C36"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B28:B36"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -2753,6 +2879,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/전체 개발일정 상세 계획(wbs작성).xlsx
+++ b/전체 개발일정 상세 계획(wbs작성).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Appintment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>- 공공데이터포털 병원정보 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 카카오톡 알림톡 api -&gt; sms로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,11 +594,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,8 +603,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +638,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -950,14 +954,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AL48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,44 +981,44 @@
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -1130,10 +1134,10 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1175,8 +1179,8 @@
       <c r="AL4" s="4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1216,8 +1220,8 @@
       <c r="AL5" s="4"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1259,8 +1263,8 @@
       <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
@@ -1300,8 +1304,8 @@
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1343,8 +1347,8 @@
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1384,8 +1388,8 @@
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1427,8 +1431,8 @@
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
@@ -1468,10 +1472,10 @@
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1513,8 +1517,8 @@
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1554,8 +1558,8 @@
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1597,8 +1601,8 @@
       <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1638,8 +1642,8 @@
       <c r="AL15" s="4"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1681,8 +1685,8 @@
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
@@ -1722,8 +1726,8 @@
       <c r="AL17" s="4"/>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1765,8 +1769,8 @@
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1806,10 +1810,10 @@
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1851,8 +1855,8 @@
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
@@ -1892,8 +1896,8 @@
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1935,8 +1939,8 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1976,8 +1980,8 @@
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2019,8 +2023,8 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2064,8 @@
       <c r="AL25" s="4"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2103,8 +2107,8 @@
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
@@ -2144,7 +2148,7 @@
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2189,8 +2193,8 @@
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2232,8 +2236,8 @@
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="4" t="s">
         <v>45</v>
       </c>
@@ -2273,8 +2277,8 @@
       <c r="AL30" s="4"/>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2316,8 +2320,8 @@
       <c r="AL31" s="4"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="4" t="s">
         <v>98</v>
       </c>
@@ -2357,9 +2361,9 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="4"/>
@@ -2398,9 +2402,9 @@
       <c r="AL33" s="4"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="4"/>
@@ -2439,9 +2443,9 @@
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="4"/>
@@ -2480,10 +2484,10 @@
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="4" t="s">
-        <v>58</v>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2491,10 +2495,10 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -2521,14 +2525,10 @@
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2537,6 +2537,9 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -2563,10 +2566,14 @@
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2575,9 +2582,6 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2604,12 +2608,10 @@
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="4" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2647,10 +2649,12 @@
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D40" s="4" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2688,12 +2692,10 @@
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2731,10 +2733,12 @@
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="D42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2772,12 +2776,10 @@
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2815,10 +2817,12 @@
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="D44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2855,19 +2859,69 @@
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B38:B45"/>
     <mergeCell ref="E2:AE2"/>
     <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C31:C37"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B28:B37"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -2879,15 +2933,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
